--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500"/>
+    <workbookView windowWidth="23145" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="136">
   <si>
     <t>MR</t>
   </si>
@@ -44,304 +45,397 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>5239</t>
-  </si>
-  <si>
-    <t>DANNY TRI ANGGA</t>
-  </si>
-  <si>
-    <t>22 Okt</t>
-  </si>
-  <si>
-    <t>0927</t>
-  </si>
-  <si>
-    <t>ROHADI</t>
-  </si>
-  <si>
-    <t>8707</t>
-  </si>
-  <si>
-    <t>TEGUH HARYANTO</t>
-  </si>
-  <si>
-    <t>5399</t>
-  </si>
-  <si>
-    <t>RADEN ENDANG KURNIA SYAMSU</t>
-  </si>
-  <si>
-    <t>9459</t>
-  </si>
-  <si>
-    <t>ZAENUDIN</t>
-  </si>
-  <si>
-    <t>0860</t>
-  </si>
-  <si>
-    <t>AGI ASTIKA PUTRA</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>SUYAYIN</t>
-  </si>
-  <si>
-    <t>5276</t>
-  </si>
-  <si>
-    <t>NANANG TARSONI</t>
-  </si>
-  <si>
-    <t>6715</t>
-  </si>
-  <si>
-    <t>SUYASNO</t>
-  </si>
-  <si>
-    <t>6035</t>
-  </si>
-  <si>
-    <t>ACEP SARIFUDIN</t>
-  </si>
-  <si>
-    <t>1057</t>
-  </si>
-  <si>
-    <t>TAUFIK HIDAYAT</t>
-  </si>
-  <si>
-    <t>2921</t>
-  </si>
-  <si>
-    <t>BUDI SURYAMAN</t>
-  </si>
-  <si>
-    <t>2416</t>
-  </si>
-  <si>
-    <t>INGGIT PRASETYO</t>
-  </si>
-  <si>
-    <t>4263</t>
-  </si>
-  <si>
-    <t>6192</t>
-  </si>
-  <si>
-    <t>HARI ARDIANSYAH</t>
-  </si>
-  <si>
-    <t>6261</t>
-  </si>
-  <si>
-    <t>NURJA</t>
-  </si>
-  <si>
-    <t>6280</t>
-  </si>
-  <si>
-    <t>PURWANTO</t>
-  </si>
-  <si>
-    <t>6263</t>
-  </si>
-  <si>
-    <t>NURSAHID</t>
-  </si>
-  <si>
-    <t>4410</t>
-  </si>
-  <si>
-    <t>DICKY RUSDIANTO</t>
-  </si>
-  <si>
-    <t>6092</t>
-  </si>
-  <si>
-    <t>AMIN TRIHADI SAPUTRO</t>
-  </si>
-  <si>
-    <t>7134</t>
-  </si>
-  <si>
-    <t>SUNARSO</t>
-  </si>
-  <si>
-    <t>7915</t>
-  </si>
-  <si>
-    <t>DWI NOVIANSYAH</t>
-  </si>
-  <si>
-    <t>4397</t>
-  </si>
-  <si>
-    <t>HANDING AZIS RAJASA</t>
-  </si>
-  <si>
-    <t>6776</t>
-  </si>
-  <si>
-    <t>AZZAHRA RIZKA KAMALIA</t>
-  </si>
-  <si>
-    <t>4489</t>
-  </si>
-  <si>
-    <t>MUHAMAD ARIS SETIAWAN</t>
-  </si>
-  <si>
-    <t>6206</t>
-  </si>
-  <si>
-    <t>MOCHAMMAD SYUKRI</t>
-  </si>
-  <si>
-    <t>6467</t>
-  </si>
-  <si>
-    <t>SYAIFUL ANWAR</t>
-  </si>
-  <si>
-    <t>6722</t>
-  </si>
-  <si>
-    <t>WIDIYANTO</t>
-  </si>
-  <si>
-    <t>4269</t>
-  </si>
-  <si>
-    <t>WINANTO</t>
-  </si>
-  <si>
-    <t>5060</t>
-  </si>
-  <si>
-    <t>DENI ADIANTO</t>
-  </si>
-  <si>
-    <t>4416</t>
-  </si>
-  <si>
-    <t>GADING FEBRIAN</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>FAKHRI AKBAR</t>
-  </si>
-  <si>
-    <t>6168</t>
-  </si>
-  <si>
-    <t>DEDY DAUD</t>
-  </si>
-  <si>
-    <t>4461</t>
-  </si>
-  <si>
-    <t>MUHAMAAD RENALDI DION</t>
-  </si>
-  <si>
-    <t>6450</t>
-  </si>
-  <si>
-    <t>NURIMAN</t>
-  </si>
-  <si>
-    <t>1408</t>
-  </si>
-  <si>
-    <t>TRISNANTO</t>
-  </si>
-  <si>
-    <t>5253</t>
-  </si>
-  <si>
-    <t>GUNAWAN BUDI SANTOSO</t>
-  </si>
-  <si>
-    <t>5279</t>
-  </si>
-  <si>
-    <t>IMAM SUPRAYITNO</t>
-  </si>
-  <si>
-    <t>5254</t>
-  </si>
-  <si>
-    <t>HENDRA HERMAWAN</t>
-  </si>
-  <si>
-    <t>3551</t>
-  </si>
-  <si>
-    <t>CAROLINA</t>
-  </si>
-  <si>
-    <t>5459</t>
-  </si>
-  <si>
-    <t>NINDITA KARINA SASTYA WARDHANI</t>
-  </si>
-  <si>
-    <t>9457</t>
-  </si>
-  <si>
-    <t>AHMAD SAMUDRA</t>
-  </si>
-  <si>
-    <t>5454</t>
-  </si>
-  <si>
-    <t>BUDI MARYANTO</t>
-  </si>
-  <si>
-    <t>6903</t>
-  </si>
-  <si>
-    <t>LUKKAS SINAGA</t>
-  </si>
-  <si>
-    <t>6451</t>
-  </si>
-  <si>
-    <t>PRIBOWO WIDYANTO</t>
-  </si>
-  <si>
-    <t>2280</t>
-  </si>
-  <si>
-    <t>INDRA BAGUS PRATAMA</t>
-  </si>
-  <si>
-    <t>7149</t>
-  </si>
-  <si>
-    <t>DATA PURA</t>
-  </si>
-  <si>
-    <t>4562</t>
-  </si>
-  <si>
-    <t>WIDADA</t>
-  </si>
-  <si>
-    <t>5095</t>
-  </si>
-  <si>
-    <t>ATOT HARYONO</t>
-  </si>
-  <si>
-    <t>1176</t>
-  </si>
-  <si>
-    <t>FERY FIRMANSYAH</t>
+    <t>5117</t>
+  </si>
+  <si>
+    <t>MOHAMMAD RAFLY RAMADHAN</t>
+  </si>
+  <si>
+    <t>31 Okt</t>
+  </si>
+  <si>
+    <t>1039</t>
+  </si>
+  <si>
+    <t>WAHID PURWANTO</t>
+  </si>
+  <si>
+    <t>5427</t>
+  </si>
+  <si>
+    <t>RAHARDI SYAFRIAN PERKASA</t>
+  </si>
+  <si>
+    <t>5312</t>
+  </si>
+  <si>
+    <t>UJANG ROPI</t>
+  </si>
+  <si>
+    <t>7145</t>
+  </si>
+  <si>
+    <t>ETIKA SAFARI</t>
+  </si>
+  <si>
+    <t>7198</t>
+  </si>
+  <si>
+    <t>DIAS MIKOLAKSONO</t>
+  </si>
+  <si>
+    <t>5423</t>
+  </si>
+  <si>
+    <t>RADEN DHONI PRASETYO ARIJADI</t>
+  </si>
+  <si>
+    <t>4491</t>
+  </si>
+  <si>
+    <t>PUJIYANTO</t>
+  </si>
+  <si>
+    <t>6590</t>
+  </si>
+  <si>
+    <t>BENI ABDILAH</t>
+  </si>
+  <si>
+    <t>5248</t>
+  </si>
+  <si>
+    <t>EVAN SAEFULLOH</t>
+  </si>
+  <si>
+    <t>4497</t>
+  </si>
+  <si>
+    <t>MARTONO</t>
+  </si>
+  <si>
+    <t>6173</t>
+  </si>
+  <si>
+    <t>DARTO</t>
+  </si>
+  <si>
+    <t>5425</t>
+  </si>
+  <si>
+    <t>EDEN MART SIAHAAN</t>
+  </si>
+  <si>
+    <t>5374</t>
+  </si>
+  <si>
+    <t>DADANG RAMDANI</t>
+  </si>
+  <si>
+    <t>6466</t>
+  </si>
+  <si>
+    <t>SLAMET</t>
+  </si>
+  <si>
+    <t>1662</t>
+  </si>
+  <si>
+    <t>HERU PURNOMO</t>
+  </si>
+  <si>
+    <t>0843</t>
+  </si>
+  <si>
+    <t>HOSNAN</t>
+  </si>
+  <si>
+    <t>6044</t>
+  </si>
+  <si>
+    <t>ADE WINARYA</t>
+  </si>
+  <si>
+    <t>5114</t>
+  </si>
+  <si>
+    <t>M RIZKAL ANGGARA YUSUF</t>
+  </si>
+  <si>
+    <t>5108</t>
+  </si>
+  <si>
+    <t>KHAIRIL AKSA</t>
+  </si>
+  <si>
+    <t>8259</t>
+  </si>
+  <si>
+    <t>ARISTO</t>
+  </si>
+  <si>
+    <t>1228</t>
+  </si>
+  <si>
+    <t>ILHAM ALGOFIKI</t>
+  </si>
+  <si>
+    <t>5497</t>
+  </si>
+  <si>
+    <t>MUCHAMMAD TRISNO SAPUTRO</t>
+  </si>
+  <si>
+    <t>6456</t>
+  </si>
+  <si>
+    <t>RIKY MURDIANSYAH</t>
+  </si>
+  <si>
+    <t>5321</t>
+  </si>
+  <si>
+    <t>IRWAN ALWAHID</t>
+  </si>
+  <si>
+    <t>5340</t>
+  </si>
+  <si>
+    <t>IMAM GOZALI</t>
+  </si>
+  <si>
+    <t>7707</t>
+  </si>
+  <si>
+    <t>CASRONI</t>
+  </si>
+  <si>
+    <t>2858</t>
+  </si>
+  <si>
+    <t>SYARIF HIDAYAT</t>
+  </si>
+  <si>
+    <t>5119</t>
+  </si>
+  <si>
+    <t>USMAN FATHONI</t>
+  </si>
+  <si>
+    <t>3604</t>
+  </si>
+  <si>
+    <t>DEDDY SETIAWAN</t>
+  </si>
+  <si>
+    <t>4426</t>
+  </si>
+  <si>
+    <t>MUH HARTONO ANGGA PRAMULYA</t>
+  </si>
+  <si>
+    <t>5282</t>
+  </si>
+  <si>
+    <t>ANDREI ARDIAN</t>
+  </si>
+  <si>
+    <t>2730</t>
+  </si>
+  <si>
+    <t>ERICK HERWINDO</t>
+  </si>
+  <si>
+    <t>4403</t>
+  </si>
+  <si>
+    <t>RIZKY MAULANA ANDRIAN</t>
+  </si>
+  <si>
+    <t>5184</t>
+  </si>
+  <si>
+    <t>KHAERUDIN</t>
+  </si>
+  <si>
+    <t>4454</t>
+  </si>
+  <si>
+    <t>HIDAYAD YULI PRASETYO</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>IKHSAN</t>
+  </si>
+  <si>
+    <t>5377</t>
+  </si>
+  <si>
+    <t>SUGIARTO</t>
+  </si>
+  <si>
+    <t>4447</t>
+  </si>
+  <si>
+    <t>ANDRI FAUZI</t>
+  </si>
+  <si>
+    <t>4406</t>
+  </si>
+  <si>
+    <t>KUSWANTO</t>
+  </si>
+  <si>
+    <t>5251</t>
+  </si>
+  <si>
+    <t>MUH. YUSUP AFFANDI</t>
+  </si>
+  <si>
+    <t>5262</t>
+  </si>
+  <si>
+    <t>AHMAD FAUZI</t>
+  </si>
+  <si>
+    <t>5259</t>
+  </si>
+  <si>
+    <t>SAMINAN</t>
+  </si>
+  <si>
+    <t>1156</t>
+  </si>
+  <si>
+    <t>WANDA ADHITYO WIBISONO</t>
+  </si>
+  <si>
+    <t>6039</t>
+  </si>
+  <si>
+    <t>ADE IRAWAN</t>
+  </si>
+  <si>
+    <t>6063</t>
+  </si>
+  <si>
+    <t>AHMAD HUSEIN</t>
+  </si>
+  <si>
+    <t>1577</t>
+  </si>
+  <si>
+    <t>AWALUDIN HANAFI</t>
+  </si>
+  <si>
+    <t>2452</t>
+  </si>
+  <si>
+    <t>FICKIH FIRMANSYAH</t>
+  </si>
+  <si>
+    <t>5478</t>
+  </si>
+  <si>
+    <t>ALFAN ADHA HUTAMA PUTRA</t>
+  </si>
+  <si>
+    <t>9747</t>
+  </si>
+  <si>
+    <t>HILMY MUHAMMAD FAUZAN</t>
+  </si>
+  <si>
+    <t>5483</t>
+  </si>
+  <si>
+    <t>SANGKALA NISCAYA KUSUMO</t>
+  </si>
+  <si>
+    <t>5466</t>
+  </si>
+  <si>
+    <t>YUDI PRASETIYO</t>
+  </si>
+  <si>
+    <t>9872</t>
+  </si>
+  <si>
+    <t>UJU JAINUDIN</t>
+  </si>
+  <si>
+    <t>8625</t>
+  </si>
+  <si>
+    <t>FRINDIYA SIAMPUTRA</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>SEPTIYANTO PRAYOGO</t>
+  </si>
+  <si>
+    <t>2676</t>
+  </si>
+  <si>
+    <t>RIZKY TRI ASTUTI</t>
+  </si>
+  <si>
+    <t>6032</t>
+  </si>
+  <si>
+    <t>MAULANA ISMU DIAJI</t>
+  </si>
+  <si>
+    <t>5477</t>
+  </si>
+  <si>
+    <t>VENY ROSDIANA SARI</t>
+  </si>
+  <si>
+    <t>5468</t>
+  </si>
+  <si>
+    <t>DAFFA SATRYO</t>
+  </si>
+  <si>
+    <t>5469</t>
+  </si>
+  <si>
+    <t>RIVALDY RAHARDYANTO</t>
+  </si>
+  <si>
+    <t>5351</t>
+  </si>
+  <si>
+    <t>HEPPI TONNI MARBUN</t>
+  </si>
+  <si>
+    <t>5087</t>
+  </si>
+  <si>
+    <t>YUNITA ANGGRAENI</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>ANNISA ALFANI BIYANNI</t>
+  </si>
+  <si>
+    <t>9454</t>
+  </si>
+  <si>
+    <t>AGUSTINO HAMONANGAN</t>
+  </si>
+  <si>
+    <t>6193</t>
+  </si>
+  <si>
+    <t>HERI SETIAWAN</t>
   </si>
 </sst>
 </file>
@@ -354,8 +448,16 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;Rp&quot;* #,##0_-;\-&quot;Rp&quot;* #,##0_-;_-&quot;Rp&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -701,12 +803,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -827,145 +944,148 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1500,33 +1620,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="10.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="35.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="8.85714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1534,13 +1652,13 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
-        <v>103515239</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2">
+        <v>103515117</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1548,13 +1666,13 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
-        <v>100590927</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3">
+        <v>100591039</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1562,13 +1680,13 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
-        <v>101998707</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4">
+        <v>103515427</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1576,13 +1694,13 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2">
-        <v>103515399</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5">
+        <v>103515312</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1590,13 +1708,13 @@
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2">
-        <v>100739459</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6">
+        <v>100587145</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1604,13 +1722,13 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
-        <v>100840860</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7">
+        <v>102267198</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1618,13 +1736,13 @@
       <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2">
-        <v>100591052</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8">
+        <v>103515423</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1632,13 +1750,13 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
-        <v>103515276</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B9">
+        <v>103514491</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1646,13 +1764,13 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="2">
-        <v>103516715</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B10">
+        <v>103306590</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1660,13 +1778,13 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="2">
-        <v>100586035</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B11">
+        <v>102305248</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1674,13 +1792,13 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="2">
-        <v>100591057</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B12">
+        <v>100994497</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1688,13 +1806,13 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="2">
-        <v>103482921</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="B13">
+        <v>103516173</v>
+      </c>
+      <c r="C13" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1702,13 +1820,13 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2">
-        <v>100812416</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B14">
+        <v>103515425</v>
+      </c>
+      <c r="C14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1716,544 +1834,1753 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2">
-        <v>103514263</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="B15">
+        <v>103515374</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="2">
-        <v>103516192</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B16">
+        <v>103516466</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2">
-        <v>100586261</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="B17">
+        <v>102301662</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2">
-        <v>100586280</v>
-      </c>
-      <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="B18">
+        <v>100590843</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2">
-        <v>100586263</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="B19">
+        <v>100586044</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2">
-        <v>103514410</v>
-      </c>
-      <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="B20">
+        <v>103515114</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="2">
-        <v>100586092</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="B21">
+        <v>103515108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2">
-        <v>101007134</v>
-      </c>
-      <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="B22">
+        <v>101868259</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2">
-        <v>102267915</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="B23">
+        <v>102301228</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="2">
-        <v>103514397</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="B24">
+        <v>103515497</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="2">
-        <v>102306776</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="B25">
+        <v>103516456</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2">
-        <v>103514489</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="B26">
+        <v>103515321</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="2">
-        <v>100586206</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="B27">
+        <v>103515340</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="2">
-        <v>103516467</v>
-      </c>
-      <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="B28">
+        <v>103517707</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="2">
-        <v>103516722</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="B29">
+        <v>103512858</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="2">
-        <v>103514269</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="B30">
+        <v>103515119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="2">
-        <v>100745060</v>
-      </c>
-      <c r="C31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="B31">
+        <v>102303604</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="2">
-        <v>103514416</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="B32">
+        <v>103514426</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="2">
-        <v>102301970</v>
-      </c>
-      <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="B33">
+        <v>103515282</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B34" s="2">
-        <v>100586168</v>
-      </c>
-      <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="B34">
+        <v>100802730</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="2">
-        <v>103514461</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="B35">
+        <v>103514403</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="2">
-        <v>103516450</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="B36">
+        <v>102005184</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="2">
-        <v>102301408</v>
-      </c>
-      <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="B37">
+        <v>103514454</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="2">
-        <v>103515253</v>
-      </c>
-      <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="B38">
+        <v>102301345</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2">
-        <v>103515279</v>
-      </c>
-      <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B39">
+        <v>103515377</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="2">
-        <v>103515254</v>
-      </c>
-      <c r="C40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="B40">
+        <v>103514447</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="2">
-        <v>102193551</v>
-      </c>
-      <c r="C41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="B41">
+        <v>103514406</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="2">
-        <v>103515459</v>
-      </c>
-      <c r="C42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="B42">
+        <v>103515251</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="2">
-        <v>100739457</v>
-      </c>
-      <c r="C43" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="B43">
+        <v>103515262</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="2">
-        <v>103515454</v>
-      </c>
-      <c r="C44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="B44">
+        <v>103515259</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="2">
-        <v>103516903</v>
-      </c>
-      <c r="C45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="B45">
+        <v>100601156</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>93</v>
-      </c>
-      <c r="B46" s="2">
-        <v>103516451</v>
-      </c>
-      <c r="C46" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="B46">
+        <v>100586039</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="2">
-        <v>103482280</v>
-      </c>
-      <c r="C47" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="B47">
+        <v>100586063</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B48" s="2">
-        <v>100587149</v>
-      </c>
-      <c r="C48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="B48">
+        <v>102271577</v>
+      </c>
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B49" s="2">
-        <v>100584562</v>
-      </c>
-      <c r="C49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="B49">
+        <v>100812452</v>
+      </c>
+      <c r="C49" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>101</v>
-      </c>
-      <c r="B50" s="2">
-        <v>100745095</v>
-      </c>
-      <c r="C50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B50">
+        <v>103515478</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51">
+        <v>102299747</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52">
+        <v>103515483</v>
+      </c>
+      <c r="C52" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53">
+        <v>103515466</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54">
+        <v>102299872</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55">
+        <v>101998625</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56">
+        <v>102301962</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57">
+        <v>100612676</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58">
+        <v>102306032</v>
+      </c>
+      <c r="C58" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59">
+        <v>103515477</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60">
+        <v>103515468</v>
+      </c>
+      <c r="C60" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61">
+        <v>103515469</v>
+      </c>
+      <c r="C61" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62">
+        <v>103515469</v>
+      </c>
+      <c r="C62" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63">
+        <v>103515351</v>
+      </c>
+      <c r="C63" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>100745087</v>
+      </c>
+      <c r="C64" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65">
+        <v>102310601</v>
+      </c>
+      <c r="C65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66">
+        <v>100739454</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67">
+        <v>103516193</v>
+      </c>
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="10.5714285714286"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="str">
+        <f>RIGHT(B1,4)</f>
+        <v>5117</v>
+      </c>
+      <c r="B1" s="1">
+        <v>103515117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A33" si="0">RIGHT(B2,4)</f>
+        <v>1039</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100591039</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>5427</v>
+      </c>
+      <c r="B3" s="1">
+        <v>103515427</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>5312</v>
+      </c>
+      <c r="B4" s="1">
+        <v>103515312</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>7145</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100587145</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>7198</v>
+      </c>
+      <c r="B6" s="1">
+        <v>102267198</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>5423</v>
+      </c>
+      <c r="B7" s="1">
+        <v>103515423</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>4491</v>
+      </c>
+      <c r="B8" s="1">
+        <v>103514491</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>6590</v>
+      </c>
+      <c r="B9" s="1">
+        <v>103306590</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>5248</v>
+      </c>
+      <c r="B10" s="1">
+        <v>102305248</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>4497</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100994497</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>6173</v>
+      </c>
+      <c r="B12" s="1">
+        <v>103516173</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>5425</v>
+      </c>
+      <c r="B13" s="1">
+        <v>103515425</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>5374</v>
+      </c>
+      <c r="B14" s="1">
+        <v>103515374</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>6466</v>
+      </c>
+      <c r="B15" s="1">
+        <v>103516466</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>1662</v>
+      </c>
+      <c r="B16" s="1">
+        <v>102301662</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>0843</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100590843</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>6044</v>
+      </c>
+      <c r="B18" s="1">
+        <v>100586044</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>5114</v>
+      </c>
+      <c r="B19" s="1">
+        <v>103515114</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>5108</v>
+      </c>
+      <c r="B20" s="1">
+        <v>103515108</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>8259</v>
+      </c>
+      <c r="B21" s="1">
+        <v>101868259</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>1228</v>
+      </c>
+      <c r="B22" s="1">
+        <v>102301228</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>5497</v>
+      </c>
+      <c r="B23" s="1">
+        <v>103515497</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>6456</v>
+      </c>
+      <c r="B24" s="1">
+        <v>103516456</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>5321</v>
+      </c>
+      <c r="B25" s="1">
+        <v>103515321</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>5340</v>
+      </c>
+      <c r="B26" s="1">
+        <v>103515340</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>7707</v>
+      </c>
+      <c r="B27" s="1">
+        <v>103517707</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>2858</v>
+      </c>
+      <c r="B28" s="1">
+        <v>103512858</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>5119</v>
+      </c>
+      <c r="B29" s="1">
+        <v>103515119</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>3604</v>
+      </c>
+      <c r="B30" s="1">
+        <v>102303604</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>4426</v>
+      </c>
+      <c r="B31" s="1">
+        <v>103514426</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>5282</v>
+      </c>
+      <c r="B32" s="1">
+        <v>103515282</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+      <c r="B33" s="1">
+        <v>100802730</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="str">
+        <f t="shared" ref="A34:A65" si="1">RIGHT(B34,4)</f>
+        <v>4403</v>
+      </c>
+      <c r="B34" s="1">
+        <v>103514403</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="str">
+        <f t="shared" si="1"/>
+        <v>5184</v>
+      </c>
+      <c r="B35" s="1">
+        <v>102005184</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="str">
+        <f t="shared" si="1"/>
+        <v>4454</v>
+      </c>
+      <c r="B36" s="1">
+        <v>103514454</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="str">
+        <f t="shared" si="1"/>
+        <v>1345</v>
+      </c>
+      <c r="B37" s="1">
+        <v>102301345</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="str">
+        <f t="shared" si="1"/>
+        <v>5377</v>
+      </c>
+      <c r="B38" s="1">
+        <v>103515377</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="str">
+        <f t="shared" si="1"/>
+        <v>4447</v>
+      </c>
+      <c r="B39" s="1">
+        <v>103514447</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="str">
+        <f t="shared" si="1"/>
+        <v>4406</v>
+      </c>
+      <c r="B40" s="1">
+        <v>103514406</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="str">
+        <f t="shared" si="1"/>
+        <v>5251</v>
+      </c>
+      <c r="B41" s="1">
+        <v>103515251</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="str">
+        <f t="shared" si="1"/>
+        <v>5262</v>
+      </c>
+      <c r="B42" s="1">
+        <v>103515262</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="str">
+        <f t="shared" si="1"/>
+        <v>5259</v>
+      </c>
+      <c r="B43" s="1">
+        <v>103515259</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="str">
+        <f t="shared" si="1"/>
+        <v>1156</v>
+      </c>
+      <c r="B44" s="1">
+        <v>100601156</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="str">
+        <f t="shared" si="1"/>
+        <v>6039</v>
+      </c>
+      <c r="B45" s="1">
+        <v>100586039</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="str">
+        <f t="shared" si="1"/>
+        <v>6063</v>
+      </c>
+      <c r="B46" s="1">
+        <v>100586063</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="str">
+        <f t="shared" si="1"/>
+        <v>1577</v>
+      </c>
+      <c r="B47" s="1">
+        <v>102271577</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="str">
+        <f t="shared" si="1"/>
+        <v>2452</v>
+      </c>
+      <c r="B48" s="1">
+        <v>100812452</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="str">
+        <f t="shared" si="1"/>
+        <v>5478</v>
+      </c>
+      <c r="B49" s="1">
+        <v>103515478</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="2">
-        <v>102301176</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="str">
+        <f t="shared" si="1"/>
+        <v>9747</v>
+      </c>
+      <c r="B50" s="1">
+        <v>102299747</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="str">
+        <f t="shared" si="1"/>
+        <v>5483</v>
+      </c>
+      <c r="B51" s="1">
+        <v>103515483</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="str">
+        <f t="shared" si="1"/>
+        <v>5466</v>
+      </c>
+      <c r="B52" s="1">
+        <v>103515466</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="str">
+        <f t="shared" si="1"/>
+        <v>9872</v>
+      </c>
+      <c r="B53" s="1">
+        <v>102299872</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="str">
+        <f t="shared" si="1"/>
+        <v>8625</v>
+      </c>
+      <c r="B54" s="1">
+        <v>101998625</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="str">
+        <f t="shared" si="1"/>
+        <v>1962</v>
+      </c>
+      <c r="B55" s="1">
+        <v>102301962</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="str">
+        <f t="shared" si="1"/>
+        <v>2676</v>
+      </c>
+      <c r="B56" s="1">
+        <v>100612676</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="str">
+        <f t="shared" si="1"/>
+        <v>6032</v>
+      </c>
+      <c r="B57" s="1">
+        <v>102306032</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="str">
+        <f t="shared" si="1"/>
+        <v>5477</v>
+      </c>
+      <c r="B58" s="1">
+        <v>103515477</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="str">
+        <f t="shared" si="1"/>
+        <v>5468</v>
+      </c>
+      <c r="B59" s="1">
+        <v>103515468</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="str">
+        <f t="shared" si="1"/>
+        <v>5469</v>
+      </c>
+      <c r="B60" s="1">
+        <v>103515469</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="str">
+        <f t="shared" si="1"/>
+        <v>5469</v>
+      </c>
+      <c r="B61" s="1">
+        <v>103515469</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="str">
+        <f t="shared" si="1"/>
+        <v>5351</v>
+      </c>
+      <c r="B62" s="1">
+        <v>103515351</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="str">
+        <f t="shared" si="1"/>
+        <v>5087</v>
+      </c>
+      <c r="B63" s="1">
+        <v>100745087</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="str">
+        <f t="shared" si="1"/>
+        <v>0601</v>
+      </c>
+      <c r="B64" s="1">
+        <v>102310601</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="str">
+        <f t="shared" si="1"/>
+        <v>9454</v>
+      </c>
+      <c r="B65" s="1">
+        <v>100739454</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="str">
+        <f>RIGHT(B66,4)</f>
+        <v>6193</v>
+      </c>
+      <c r="B66" s="1">
+        <v>103516193</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
